--- a/Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles/Data/Procesada/MTA_Metro_Lines.xlsx
+++ b/Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles/Data/Procesada/MTA_Metro_Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renat\Documents\portfolios\xzoremx.github.io\Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles\Data\Procesada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB6FC5-F24B-400F-986B-6348078D9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7AE3C-481D-4622-9328-AEEB4051ED02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,11 @@
     <sheet name="MTA Metro Lines_0" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
